--- a/Code/Results/Cases/Case_4_165/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_165/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.32854757213596</v>
+        <v>1.280823128560371</v>
       </c>
       <c r="C2">
-        <v>0.08147430315840865</v>
+        <v>0.07915547753766106</v>
       </c>
       <c r="D2">
-        <v>0.3079389716688041</v>
+        <v>0.5346783271571667</v>
       </c>
       <c r="E2">
-        <v>0.08030110097381993</v>
+        <v>0.1768911601100633</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008391620082244698</v>
+        <v>0.002554510007074008</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02435144608074236</v>
+        <v>0.06741007856803183</v>
       </c>
       <c r="K2">
-        <v>1.031325614449344</v>
+        <v>0.7037056246823283</v>
       </c>
       <c r="L2">
-        <v>0.2686637892502404</v>
+        <v>0.4189190924949031</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.318197047057669</v>
+        <v>2.777633187389654</v>
       </c>
       <c r="O2">
-        <v>3.401444528388879</v>
+        <v>7.141456727666366</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.172729225484176</v>
+        <v>1.244599554801709</v>
       </c>
       <c r="C3">
-        <v>0.07776022491271561</v>
+        <v>0.07781329502025613</v>
       </c>
       <c r="D3">
-        <v>0.2873424275855996</v>
+        <v>0.5322067500233061</v>
       </c>
       <c r="E3">
-        <v>0.07735817531045086</v>
+        <v>0.1770125259674025</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008436050050628917</v>
+        <v>0.002557469389171832</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02469195203223773</v>
+        <v>0.06770158817154215</v>
       </c>
       <c r="K3">
-        <v>0.8994052562009642</v>
+        <v>0.6700692321717838</v>
       </c>
       <c r="L3">
-        <v>0.245646217292915</v>
+        <v>0.415077664569381</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.371605775319011</v>
+        <v>2.800698875694088</v>
       </c>
       <c r="O3">
-        <v>3.349904728396524</v>
+        <v>7.167007916831977</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.077971979939406</v>
+        <v>1.222927364422105</v>
       </c>
       <c r="C4">
-        <v>0.07547383568520871</v>
+        <v>0.07697751722614044</v>
       </c>
       <c r="D4">
-        <v>0.2750477864814656</v>
+        <v>0.5309111381388192</v>
       </c>
       <c r="E4">
-        <v>0.0756407331201423</v>
+        <v>0.1771483094187616</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008464259444623231</v>
+        <v>0.002559384908082829</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02491668818203241</v>
+        <v>0.06789281316686768</v>
       </c>
       <c r="K4">
-        <v>0.8189389113320829</v>
+        <v>0.6497159731215163</v>
       </c>
       <c r="L4">
-        <v>0.231781340709432</v>
+        <v>0.4128930193174654</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.405811231821136</v>
+        <v>2.815603981677544</v>
       </c>
       <c r="O4">
-        <v>3.323327818028588</v>
+        <v>7.185539548630601</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.039566802990464</v>
+        <v>1.214239590865645</v>
       </c>
       <c r="C5">
-        <v>0.07454028067230922</v>
+        <v>0.07663400386281438</v>
       </c>
       <c r="D5">
-        <v>0.2701215050765313</v>
+        <v>0.5304390995114403</v>
       </c>
       <c r="E5">
-        <v>0.07496251474925586</v>
+        <v>0.1772190809108309</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008475992782609564</v>
+        <v>0.002560190327128201</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02501217254786692</v>
+        <v>0.06797382260062967</v>
       </c>
       <c r="K5">
-        <v>0.7862657327621321</v>
+        <v>0.6414976889402624</v>
       </c>
       <c r="L5">
-        <v>0.2261945218943424</v>
+        <v>0.4120466366570454</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.420098100968826</v>
+        <v>2.821864743567115</v>
       </c>
       <c r="O5">
-        <v>3.313720739309247</v>
+        <v>7.193806831519794</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.033201690108399</v>
+        <v>1.212805699173771</v>
       </c>
       <c r="C6">
-        <v>0.07438514432531917</v>
+        <v>0.07657678717634298</v>
       </c>
       <c r="D6">
-        <v>0.269308437361417</v>
+        <v>0.5303640997564116</v>
       </c>
       <c r="E6">
-        <v>0.07485118062513685</v>
+        <v>0.1772317658971563</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.000847795557320068</v>
+        <v>0.00256032556806391</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02502826233315592</v>
+        <v>0.06798746059859706</v>
       </c>
       <c r="K6">
-        <v>0.7808470061407604</v>
+        <v>0.6401376438103057</v>
       </c>
       <c r="L6">
-        <v>0.2252705364057945</v>
+        <v>0.4119087491970248</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.422491230032719</v>
+        <v>2.822915622912493</v>
       </c>
       <c r="O6">
-        <v>3.31219792029529</v>
+        <v>7.195222838466947</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.077453214464498</v>
+        <v>1.222809614843698</v>
       </c>
       <c r="C7">
-        <v>0.07546125329190545</v>
+        <v>0.07697289632658766</v>
       </c>
       <c r="D7">
-        <v>0.2749810151371292</v>
+        <v>0.5309045454224446</v>
       </c>
       <c r="E7">
-        <v>0.07563149985988638</v>
+        <v>0.1771492013131333</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008464416715977624</v>
+        <v>0.002559395669705167</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02491796016274606</v>
+        <v>0.06789389319360684</v>
       </c>
       <c r="K7">
-        <v>0.8184978148885023</v>
+        <v>0.6496048307654974</v>
       </c>
       <c r="L7">
-        <v>0.2317057442368622</v>
+        <v>0.412881426880773</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.40600251033668</v>
+        <v>2.815687660041601</v>
       </c>
       <c r="O7">
-        <v>3.323193366707955</v>
+        <v>7.185648146346864</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.274618201792663</v>
+        <v>1.268215491574637</v>
       </c>
       <c r="C8">
-        <v>0.08019470591492706</v>
+        <v>0.07869512001816048</v>
       </c>
       <c r="D8">
-        <v>0.3007614613178333</v>
+        <v>0.5337801344661841</v>
       </c>
       <c r="E8">
-        <v>0.07926726755537317</v>
+        <v>0.1769203112567261</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008406749218485832</v>
+        <v>0.002555510014262186</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02446557903213264</v>
+        <v>0.06750805529095594</v>
       </c>
       <c r="K8">
-        <v>0.9857184818961002</v>
+        <v>0.6920458930116524</v>
       </c>
       <c r="L8">
-        <v>0.2606691254625844</v>
+        <v>0.417558524332847</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.336314776382146</v>
+        <v>2.785432129849941</v>
       </c>
       <c r="O8">
-        <v>3.382589825412168</v>
+        <v>7.14967702720287</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.669555181800831</v>
+        <v>1.361748659136481</v>
       </c>
       <c r="C9">
-        <v>0.08944697234591814</v>
+        <v>0.08197956880184165</v>
       </c>
       <c r="D9">
-        <v>0.3543276749688431</v>
+        <v>0.5411756048577843</v>
       </c>
       <c r="E9">
-        <v>0.08714873831596393</v>
+        <v>0.1769562348779452</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008300839404427266</v>
+        <v>0.002548667994948915</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02370447356138072</v>
+        <v>0.06684822552582936</v>
       </c>
       <c r="K9">
-        <v>1.318679757299975</v>
+        <v>0.7776332707523181</v>
       </c>
       <c r="L9">
-        <v>0.3197945784959302</v>
+        <v>0.4281064666407559</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.211206334789079</v>
+        <v>2.731990557941373</v>
       </c>
       <c r="O9">
-        <v>3.541747784157792</v>
+        <v>7.101675256421998</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.966325373229722</v>
+        <v>1.433182139582868</v>
       </c>
       <c r="C10">
-        <v>0.09625255213997974</v>
+        <v>0.08433598229149197</v>
       </c>
       <c r="D10">
-        <v>0.3958468046472348</v>
+        <v>0.5476748809821004</v>
       </c>
       <c r="E10">
-        <v>0.09345922032531107</v>
+        <v>0.1772765678741308</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.000822711145137221</v>
+        <v>0.002544110550130263</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02322464753575648</v>
+        <v>0.0664220496761132</v>
       </c>
       <c r="K10">
-        <v>1.56760396364453</v>
+        <v>0.8419379558439459</v>
       </c>
       <c r="L10">
-        <v>0.3649561385100242</v>
+        <v>0.4366902471509917</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.126832514842995</v>
+        <v>2.696311506239201</v>
       </c>
       <c r="O10">
-        <v>3.688360466962791</v>
+        <v>7.080125088032901</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.103141628927006</v>
+        <v>1.466263989204492</v>
       </c>
       <c r="C11">
-        <v>0.09935675546653044</v>
+        <v>0.08539566530215836</v>
       </c>
       <c r="D11">
-        <v>0.415283278584667</v>
+        <v>0.5508620354911784</v>
       </c>
       <c r="E11">
-        <v>0.09645764752549013</v>
+        <v>0.1774857988537271</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008194389131674191</v>
+        <v>0.002542138164688815</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02302420125101179</v>
+        <v>0.06624080945931432</v>
       </c>
       <c r="K11">
-        <v>1.682073480260669</v>
+        <v>0.8714981208953532</v>
       </c>
       <c r="L11">
-        <v>0.3859477690502615</v>
+        <v>0.4407754525002758</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.090207263191466</v>
+        <v>2.680857270482985</v>
       </c>
       <c r="O11">
-        <v>3.762379588321465</v>
+        <v>7.07329552736212</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.15524421492654</v>
+        <v>1.478874980998</v>
       </c>
       <c r="C12">
-        <v>0.1005340096605138</v>
+        <v>0.08579517117670576</v>
       </c>
       <c r="D12">
-        <v>0.4227293075764464</v>
+        <v>0.5521019831228386</v>
       </c>
       <c r="E12">
-        <v>0.0976127543310028</v>
+        <v>0.1775741317597657</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008182109534840226</v>
+        <v>0.002541405694860604</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02295091667261673</v>
+        <v>0.06617398795004092</v>
       </c>
       <c r="K12">
-        <v>1.725623421595685</v>
+        <v>0.8827356276290459</v>
       </c>
       <c r="L12">
-        <v>0.3939675343731608</v>
+        <v>0.4423482512890473</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.076601977844064</v>
+        <v>2.675116742142055</v>
       </c>
       <c r="O12">
-        <v>3.791540835232098</v>
+        <v>7.07113653979934</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.144009406717203</v>
+        <v>1.476155270854974</v>
       </c>
       <c r="C13">
-        <v>0.100280379091771</v>
+        <v>0.08570920945496141</v>
       </c>
       <c r="D13">
-        <v>0.4211217384694521</v>
+        <v>0.5518334705806183</v>
       </c>
       <c r="E13">
-        <v>0.09736308504874103</v>
+        <v>0.1775547033806397</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.000818474929774135</v>
+        <v>0.002541562804685905</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02296658234894267</v>
+        <v>0.06618829874007837</v>
       </c>
       <c r="K13">
-        <v>1.716234713719615</v>
+        <v>0.8803134936578942</v>
       </c>
       <c r="L13">
-        <v>0.3922370841392393</v>
+        <v>0.4420083744968935</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.079520193628696</v>
+        <v>2.676348101404781</v>
       </c>
       <c r="O13">
-        <v>3.785208785948214</v>
+        <v>7.071582522017934</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.107422068773644</v>
+        <v>1.467299831420348</v>
       </c>
       <c r="C14">
-        <v>0.09945357019039136</v>
+        <v>0.08542856848249158</v>
       </c>
       <c r="D14">
-        <v>0.4158941059353367</v>
+        <v>0.5509633852097124</v>
       </c>
       <c r="E14">
-        <v>0.09655227693229307</v>
+        <v>0.1774928838209462</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.000819337667927608</v>
+        <v>0.002542077615089562</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.0230181192373049</v>
+        <v>0.06623527576749133</v>
       </c>
       <c r="K14">
-        <v>1.68565214183522</v>
+        <v>0.8724217642527208</v>
       </c>
       <c r="L14">
-        <v>0.3866061051296441</v>
+        <v>0.4409043308217377</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.089082591544358</v>
+        <v>2.680382755906621</v>
       </c>
       <c r="O14">
-        <v>3.764755547043421</v>
+        <v>7.073109346319484</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.085050459472257</v>
+        <v>1.461886486919013</v>
       </c>
       <c r="C15">
-        <v>0.09894737267739373</v>
+        <v>0.08525643658121851</v>
       </c>
       <c r="D15">
-        <v>0.412703424127983</v>
+        <v>0.5504347322396939</v>
       </c>
       <c r="E15">
-        <v>0.09605823490631238</v>
+        <v>0.1774562019451231</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008198675558166569</v>
+        <v>0.002542394828663525</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02305003002143025</v>
+        <v>0.06626428612502089</v>
       </c>
       <c r="K15">
-        <v>1.666946639088508</v>
+        <v>0.8675935293797465</v>
       </c>
       <c r="L15">
-        <v>0.3831663705853003</v>
+        <v>0.4402314311488453</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.094974553493898</v>
+        <v>2.682868639702708</v>
       </c>
       <c r="O15">
-        <v>3.752377176956998</v>
+        <v>7.074100195050846</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.957423324859178</v>
+        <v>1.43103190204954</v>
       </c>
       <c r="C16">
-        <v>0.0960498994978991</v>
+        <v>0.08426648193771769</v>
       </c>
       <c r="D16">
-        <v>0.3945882139649086</v>
+        <v>0.5474712230676744</v>
       </c>
       <c r="E16">
-        <v>0.09326594555195555</v>
+        <v>0.1772641694691366</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008229265880215273</v>
+        <v>0.002544241473076685</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.02323811065717596</v>
+        <v>0.06643414778303391</v>
       </c>
       <c r="K16">
-        <v>1.560150056673763</v>
+        <v>0.8400122752093182</v>
       </c>
       <c r="L16">
-        <v>0.3635938214950016</v>
+        <v>0.4364268891292369</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.129262357426381</v>
+        <v>2.697337100375591</v>
       </c>
       <c r="O16">
-        <v>3.683677111072939</v>
+        <v>7.080631220554892</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.879615107798799</v>
+        <v>1.412253299262431</v>
       </c>
       <c r="C17">
-        <v>0.09427490805299499</v>
+        <v>0.08365602934676986</v>
       </c>
       <c r="D17">
-        <v>0.3836205281239131</v>
+        <v>0.5457121841104993</v>
       </c>
       <c r="E17">
-        <v>0.09158658152325216</v>
+        <v>0.1771626081024529</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008248237246619558</v>
+        <v>0.002545400103627804</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02335809726350746</v>
+        <v>0.06654158289979684</v>
       </c>
       <c r="K17">
-        <v>1.494967105601233</v>
+        <v>0.823170490019919</v>
       </c>
       <c r="L17">
-        <v>0.3517056624185528</v>
+        <v>0.434139044434346</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.15075453693451</v>
+        <v>2.706411884374841</v>
       </c>
       <c r="O17">
-        <v>3.643461856930514</v>
+        <v>7.085399149043496</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.835030543096167</v>
+        <v>1.401507580880718</v>
       </c>
       <c r="C18">
-        <v>0.09325472545102542</v>
+        <v>0.08330375966323089</v>
       </c>
       <c r="D18">
-        <v>0.3773634593691497</v>
+        <v>0.5447221437961929</v>
       </c>
       <c r="E18">
-        <v>0.09063259793940404</v>
+        <v>0.177110172387593</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008259226336354938</v>
+        <v>0.002546076010589266</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02342878493235823</v>
+        <v>0.06660456581554985</v>
       </c>
       <c r="K18">
-        <v>1.45758997568322</v>
+        <v>0.8135125286214304</v>
       </c>
       <c r="L18">
-        <v>0.3449096125921898</v>
+        <v>0.4328401240637163</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.163280907098606</v>
+        <v>2.711704531947419</v>
       </c>
       <c r="O18">
-        <v>3.621015459880425</v>
+        <v>7.088421459382744</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.81996299622088</v>
+        <v>1.397878773987827</v>
       </c>
       <c r="C19">
-        <v>0.0929094208161132</v>
+        <v>0.0831842893887611</v>
       </c>
       <c r="D19">
-        <v>0.3752535246522086</v>
+        <v>0.544390665900039</v>
       </c>
       <c r="E19">
-        <v>0.09031160857566789</v>
+        <v>0.1770934465195708</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008262960494520132</v>
+        <v>0.002546306493797673</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0234530045170116</v>
+        <v>0.06662609515310347</v>
       </c>
       <c r="K19">
-        <v>1.444953619041343</v>
+        <v>0.810247503547572</v>
       </c>
       <c r="L19">
-        <v>0.3426155637858841</v>
+        <v>0.4324032532409348</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.167550067503832</v>
+        <v>2.713509081147862</v>
       </c>
       <c r="O19">
-        <v>3.61353073414341</v>
+        <v>7.089492851179045</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.887880242398808</v>
+        <v>1.414246601885992</v>
       </c>
       <c r="C20">
-        <v>0.0944637778348465</v>
+        <v>0.08372113252218583</v>
       </c>
       <c r="D20">
-        <v>0.3847827041295915</v>
+        <v>0.5458971905233483</v>
       </c>
       <c r="E20">
-        <v>0.0917641076255542</v>
+        <v>0.1771728008318867</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008246209756930763</v>
+        <v>0.002545275783268821</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02334515078041655</v>
+        <v>0.06653002322563761</v>
       </c>
       <c r="K20">
-        <v>1.501893925176518</v>
+        <v>0.8249603304579978</v>
       </c>
       <c r="L20">
-        <v>0.3529668164328399</v>
+        <v>0.4343808321562221</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.148449539461868</v>
+        <v>2.705438295340603</v>
       </c>
       <c r="O20">
-        <v>3.647671460791884</v>
+        <v>7.084862626723066</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.118160428007116</v>
+        <v>1.469898625058704</v>
       </c>
       <c r="C21">
-        <v>0.09969637148928001</v>
+        <v>0.08551104773801654</v>
       </c>
       <c r="D21">
-        <v>0.4174272008206685</v>
+        <v>0.5512180545863146</v>
       </c>
       <c r="E21">
-        <v>0.0967898863631369</v>
+        <v>0.1775107949537293</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008190839627019164</v>
+        <v>0.002541926011719868</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02300291002678367</v>
+        <v>0.06622142839318634</v>
       </c>
       <c r="K21">
-        <v>1.694629266465597</v>
+        <v>0.8747385742782399</v>
       </c>
       <c r="L21">
-        <v>0.3882580886294704</v>
+        <v>0.4412279154239513</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.086266627131476</v>
+        <v>2.679194649622747</v>
       </c>
       <c r="O21">
-        <v>3.770731786084497</v>
+        <v>7.072649289565646</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.270387906453493</v>
+        <v>1.506757472535242</v>
       </c>
       <c r="C22">
-        <v>0.1031267314552409</v>
+        <v>0.08667052133588271</v>
       </c>
       <c r="D22">
-        <v>0.4392662762036252</v>
+        <v>0.5548880823384934</v>
       </c>
       <c r="E22">
-        <v>0.1001898310314076</v>
+        <v>0.1777847308807559</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0008155299753782599</v>
+        <v>0.002539820819654527</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02279453685599897</v>
+        <v>0.06603029253446735</v>
       </c>
       <c r="K22">
-        <v>1.82178846087001</v>
+        <v>0.9075260882479483</v>
       </c>
       <c r="L22">
-        <v>0.411738313233883</v>
+        <v>0.445853323855161</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.047170587568388</v>
+        <v>2.662693733667233</v>
       </c>
       <c r="O22">
-        <v>3.857796745208276</v>
+        <v>7.067157144563168</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.188971945985088</v>
+        <v>1.487040882931637</v>
       </c>
       <c r="C23">
-        <v>0.1012947174158541</v>
+        <v>0.08605263778968464</v>
       </c>
       <c r="D23">
-        <v>0.4275618266730419</v>
+        <v>0.5529117416496092</v>
       </c>
       <c r="E23">
-        <v>0.09836421274120966</v>
+        <v>0.1776336834161398</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008174210817469212</v>
+        <v>0.002540936729314138</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02290432982013346</v>
+        <v>0.06613134205453974</v>
       </c>
       <c r="K23">
-        <v>1.75380284442798</v>
+        <v>0.8900036565377434</v>
       </c>
       <c r="L23">
-        <v>0.3991662457947172</v>
+        <v>0.4433709307039067</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.067891643091436</v>
+        <v>2.671441025796643</v>
       </c>
       <c r="O23">
-        <v>3.810693618911444</v>
+        <v>7.069860703071924</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.884143115183207</v>
+        <v>1.413345272878388</v>
       </c>
       <c r="C24">
-        <v>0.09437838896511863</v>
+        <v>0.08369170346366417</v>
       </c>
       <c r="D24">
-        <v>0.3842571341170355</v>
+        <v>0.5458134829103614</v>
       </c>
       <c r="E24">
-        <v>0.09168381233556389</v>
+        <v>0.1771681741530422</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.000824712612796727</v>
+        <v>0.002545331957889612</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.02335099857653056</v>
+        <v>0.0665352455627195</v>
       </c>
       <c r="K24">
-        <v>1.498762008523585</v>
+        <v>0.8241510669135153</v>
       </c>
       <c r="L24">
-        <v>0.352396528912422</v>
+        <v>0.4342714688594072</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.149491099433728</v>
+        <v>2.705878219965246</v>
       </c>
       <c r="O24">
-        <v>3.645766205746241</v>
+        <v>7.085104312606319</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.56167214907174</v>
+        <v>1.335967004937231</v>
       </c>
       <c r="C25">
-        <v>0.08694462369635403</v>
+        <v>0.08110098461802551</v>
       </c>
       <c r="D25">
-        <v>0.3394816373819367</v>
+        <v>0.5389874071873209</v>
       </c>
       <c r="E25">
-        <v>0.08492998636033278</v>
+        <v>0.1768947830263805</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008328751617520475</v>
+        <v>0.002550436172445216</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02389663084116478</v>
+        <v>0.06701640661235864</v>
       </c>
       <c r="K25">
-        <v>1.227943868500631</v>
+        <v>0.7542284984106118</v>
       </c>
       <c r="L25">
-        <v>0.3035202923992131</v>
+        <v>0.425106131636511</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.243765364724666</v>
+        <v>2.745818036997871</v>
       </c>
       <c r="O25">
-        <v>3.493759265736713</v>
+        <v>7.11225058358383</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_165/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_165/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.280823128560371</v>
+        <v>1.328547572135875</v>
       </c>
       <c r="C2">
-        <v>0.07915547753766106</v>
+        <v>0.08147430315815285</v>
       </c>
       <c r="D2">
-        <v>0.5346783271571667</v>
+        <v>0.3079389716687757</v>
       </c>
       <c r="E2">
-        <v>0.1768911601100633</v>
+        <v>0.08030110097381993</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002554510007074008</v>
+        <v>0.0008391620081955009</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06741007856803183</v>
+        <v>0.02435144608066775</v>
       </c>
       <c r="K2">
-        <v>0.7037056246823283</v>
+        <v>1.031325614449315</v>
       </c>
       <c r="L2">
-        <v>0.4189190924949031</v>
+        <v>0.2686637892501551</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.777633187389654</v>
+        <v>1.318197047057652</v>
       </c>
       <c r="O2">
-        <v>7.141456727666366</v>
+        <v>3.401444528388822</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.244599554801709</v>
+        <v>1.172729225484147</v>
       </c>
       <c r="C3">
-        <v>0.07781329502025613</v>
+        <v>0.07776022491295009</v>
       </c>
       <c r="D3">
-        <v>0.5322067500233061</v>
+        <v>0.2873424275856138</v>
       </c>
       <c r="E3">
-        <v>0.1770125259674025</v>
+        <v>0.07735817531044731</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002557469389171832</v>
+        <v>0.0008436050050628663</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06770158817154215</v>
+        <v>0.02469195203218266</v>
       </c>
       <c r="K3">
-        <v>0.6700692321717838</v>
+        <v>0.8994052562009642</v>
       </c>
       <c r="L3">
-        <v>0.415077664569381</v>
+        <v>0.2456462172929577</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.800698875694088</v>
+        <v>1.371605775319022</v>
       </c>
       <c r="O3">
-        <v>7.167007916831977</v>
+        <v>3.349904728396552</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.222927364422105</v>
+        <v>1.077971979939235</v>
       </c>
       <c r="C4">
-        <v>0.07697751722614044</v>
+        <v>0.07547383568554267</v>
       </c>
       <c r="D4">
-        <v>0.5309111381388192</v>
+        <v>0.2750477864813519</v>
       </c>
       <c r="E4">
-        <v>0.1771483094187616</v>
+        <v>0.07564073312015651</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002559384908082829</v>
+        <v>0.0008464259444079802</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06789281316686768</v>
+        <v>0.02491668818211057</v>
       </c>
       <c r="K4">
-        <v>0.6497159731215163</v>
+        <v>0.8189389113321681</v>
       </c>
       <c r="L4">
-        <v>0.4128930193174654</v>
+        <v>0.2317813407093752</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.815603981677544</v>
+        <v>1.405811231821122</v>
       </c>
       <c r="O4">
-        <v>7.185539548630601</v>
+        <v>3.323327818028588</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.214239590865645</v>
+        <v>1.039566802990606</v>
       </c>
       <c r="C5">
-        <v>0.07663400386281438</v>
+        <v>0.07454028067268581</v>
       </c>
       <c r="D5">
-        <v>0.5304390995114403</v>
+        <v>0.2701215050766592</v>
       </c>
       <c r="E5">
-        <v>0.1772190809108309</v>
+        <v>0.07496251474926474</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002560190327128201</v>
+        <v>0.0008475992782638774</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06797382260062967</v>
+        <v>0.02501217254791843</v>
       </c>
       <c r="K5">
-        <v>0.6414976889402624</v>
+        <v>0.7862657327621889</v>
       </c>
       <c r="L5">
-        <v>0.4120466366570454</v>
+        <v>0.2261945218943779</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.821864743567115</v>
+        <v>1.420098100968769</v>
       </c>
       <c r="O5">
-        <v>7.193806831519794</v>
+        <v>3.313720739309332</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.212805699173771</v>
+        <v>1.033201690108228</v>
       </c>
       <c r="C6">
-        <v>0.07657678717634298</v>
+        <v>0.07438514432521259</v>
       </c>
       <c r="D6">
-        <v>0.5303640997564116</v>
+        <v>0.2693084373613317</v>
       </c>
       <c r="E6">
-        <v>0.1772317658971563</v>
+        <v>0.07485118062511731</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.00256032556806391</v>
+        <v>0.0008477955573182057</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06798746059859706</v>
+        <v>0.02502826233319499</v>
       </c>
       <c r="K6">
-        <v>0.6401376438103057</v>
+        <v>0.7808470061407888</v>
       </c>
       <c r="L6">
-        <v>0.4119087491970248</v>
+        <v>0.2252705364058158</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.822915622912493</v>
+        <v>1.422491230032705</v>
       </c>
       <c r="O6">
-        <v>7.195222838466947</v>
+        <v>3.312197920295318</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.222809614843698</v>
+        <v>1.077453214464697</v>
       </c>
       <c r="C7">
-        <v>0.07697289632658766</v>
+        <v>0.07546125329247388</v>
       </c>
       <c r="D7">
-        <v>0.5309045454224446</v>
+        <v>0.2749810151369303</v>
       </c>
       <c r="E7">
-        <v>0.1771492013131333</v>
+        <v>0.07563149985988105</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002559395669705167</v>
+        <v>0.0008464416715689092</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06789389319360684</v>
+        <v>0.02491796016284198</v>
       </c>
       <c r="K7">
-        <v>0.6496048307654974</v>
+        <v>0.8184978148885591</v>
       </c>
       <c r="L7">
-        <v>0.412881426880773</v>
+        <v>0.2317057442367343</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.815687660041601</v>
+        <v>1.406002510336652</v>
       </c>
       <c r="O7">
-        <v>7.185648146346864</v>
+        <v>3.323193366707926</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.268215491574637</v>
+        <v>1.27461820179272</v>
       </c>
       <c r="C8">
-        <v>0.07869512001816048</v>
+        <v>0.08019470591480626</v>
       </c>
       <c r="D8">
-        <v>0.5337801344661841</v>
+        <v>0.3007614613178902</v>
       </c>
       <c r="E8">
-        <v>0.1769203112567261</v>
+        <v>0.07926726755537317</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002555510014262186</v>
+        <v>0.000840674921878468</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06750805529095594</v>
+        <v>0.02446557903200297</v>
       </c>
       <c r="K8">
-        <v>0.6920458930116524</v>
+        <v>0.9857184818961287</v>
       </c>
       <c r="L8">
-        <v>0.417558524332847</v>
+        <v>0.2606691254626128</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.785432129849941</v>
+        <v>1.336314776382132</v>
       </c>
       <c r="O8">
-        <v>7.14967702720287</v>
+        <v>3.382589825412111</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.361748659136481</v>
+        <v>1.669555181800803</v>
       </c>
       <c r="C9">
-        <v>0.08197956880184165</v>
+        <v>0.08944697234603893</v>
       </c>
       <c r="D9">
-        <v>0.5411756048577843</v>
+        <v>0.3543276749688431</v>
       </c>
       <c r="E9">
-        <v>0.1769562348779452</v>
+        <v>0.08714873831594616</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002548667994948915</v>
+        <v>0.0008300839404133738</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06684822552582936</v>
+        <v>0.02370447356132122</v>
       </c>
       <c r="K9">
-        <v>0.7776332707523181</v>
+        <v>1.318679757300032</v>
       </c>
       <c r="L9">
-        <v>0.4281064666407559</v>
+        <v>0.3197945784959586</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.731990557941373</v>
+        <v>1.211206334789047</v>
       </c>
       <c r="O9">
-        <v>7.101675256421998</v>
+        <v>3.541747784157764</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.433182139582868</v>
+        <v>1.966325373229836</v>
       </c>
       <c r="C10">
-        <v>0.08433598229149197</v>
+        <v>0.09625255214009343</v>
       </c>
       <c r="D10">
-        <v>0.5476748809821004</v>
+        <v>0.3958468046473484</v>
       </c>
       <c r="E10">
-        <v>0.1772765678741308</v>
+        <v>0.09345922032531462</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002544110550130263</v>
+        <v>0.0008227111451666746</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0664220496761132</v>
+        <v>0.02322464753581244</v>
       </c>
       <c r="K10">
-        <v>0.8419379558439459</v>
+        <v>1.567603963644444</v>
       </c>
       <c r="L10">
-        <v>0.4366902471509917</v>
+        <v>0.3649561385100242</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.696311506239201</v>
+        <v>1.126832514842992</v>
       </c>
       <c r="O10">
-        <v>7.080125088032901</v>
+        <v>3.68836046696282</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.466263989204492</v>
+        <v>2.103141628927006</v>
       </c>
       <c r="C11">
-        <v>0.08539566530215836</v>
+        <v>0.09935675546665834</v>
       </c>
       <c r="D11">
-        <v>0.5508620354911784</v>
+        <v>0.4152832785843827</v>
       </c>
       <c r="E11">
-        <v>0.1774857988537271</v>
+        <v>0.09645764752549013</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002542138164688815</v>
+        <v>0.0008194389131385773</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06624080945931432</v>
+        <v>0.02302420125096916</v>
       </c>
       <c r="K11">
-        <v>0.8714981208953532</v>
+        <v>1.682073480260613</v>
       </c>
       <c r="L11">
-        <v>0.4407754525002758</v>
+        <v>0.3859477690503326</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.680857270482985</v>
+        <v>1.090207263191459</v>
       </c>
       <c r="O11">
-        <v>7.07329552736212</v>
+        <v>3.762379588321409</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.478874980998</v>
+        <v>2.15524421492654</v>
       </c>
       <c r="C12">
-        <v>0.08579517117670576</v>
+        <v>0.1005340096604925</v>
       </c>
       <c r="D12">
-        <v>0.5521019831228386</v>
+        <v>0.422729307576617</v>
       </c>
       <c r="E12">
-        <v>0.1775741317597657</v>
+        <v>0.09761275433102057</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002541405694860604</v>
+        <v>0.0008182109534839625</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06617398795004092</v>
+        <v>0.02295091667254923</v>
       </c>
       <c r="K12">
-        <v>0.8827356276290459</v>
+        <v>1.725623421595714</v>
       </c>
       <c r="L12">
-        <v>0.4423482512890473</v>
+        <v>0.3939675343731039</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.675116742142055</v>
+        <v>1.076601977844035</v>
       </c>
       <c r="O12">
-        <v>7.07113653979934</v>
+        <v>3.791540835232126</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.476155270854974</v>
+        <v>2.144009406717259</v>
       </c>
       <c r="C13">
-        <v>0.08570920945496141</v>
+        <v>0.1002803790921476</v>
       </c>
       <c r="D13">
-        <v>0.5518334705806183</v>
+        <v>0.4211217384695374</v>
       </c>
       <c r="E13">
-        <v>0.1775547033806397</v>
+        <v>0.09736308504875524</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002541562804685905</v>
+        <v>0.0008184749297400565</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06618829874007837</v>
+        <v>0.02296658234900395</v>
       </c>
       <c r="K13">
-        <v>0.8803134936578942</v>
+        <v>1.716234713719615</v>
       </c>
       <c r="L13">
-        <v>0.4420083744968935</v>
+        <v>0.3922370841391398</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.676348101404781</v>
+        <v>1.079520193628703</v>
       </c>
       <c r="O13">
-        <v>7.071582522017934</v>
+        <v>3.785208785948242</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.467299831420348</v>
+        <v>2.107422068773758</v>
       </c>
       <c r="C14">
-        <v>0.08542856848249158</v>
+        <v>0.09945357019039847</v>
       </c>
       <c r="D14">
-        <v>0.5509633852097124</v>
+        <v>0.4158941059353367</v>
       </c>
       <c r="E14">
-        <v>0.1774928838209462</v>
+        <v>0.09655227693228952</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002542077615089562</v>
+        <v>0.0008193376679328148</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06623527576749133</v>
+        <v>0.0230181192373653</v>
       </c>
       <c r="K14">
-        <v>0.8724217642527208</v>
+        <v>1.685652141835163</v>
       </c>
       <c r="L14">
-        <v>0.4409043308217377</v>
+        <v>0.3866061051296583</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.680382755906621</v>
+        <v>1.089082591544361</v>
       </c>
       <c r="O14">
-        <v>7.073109346319484</v>
+        <v>3.764755547043421</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.461886486919013</v>
+        <v>2.085050459472143</v>
       </c>
       <c r="C15">
-        <v>0.08525643658121851</v>
+        <v>0.09894737267752163</v>
       </c>
       <c r="D15">
-        <v>0.5504347322396939</v>
+        <v>0.4127034241279546</v>
       </c>
       <c r="E15">
-        <v>0.1774562019451231</v>
+        <v>0.09605823490633369</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002542394828663525</v>
+        <v>0.0008198675557875346</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06626428612502089</v>
+        <v>0.02305003002154038</v>
       </c>
       <c r="K15">
-        <v>0.8675935293797465</v>
+        <v>1.666946639088451</v>
       </c>
       <c r="L15">
-        <v>0.4402314311488453</v>
+        <v>0.3831663705852577</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.682868639702708</v>
+        <v>1.094974553493898</v>
       </c>
       <c r="O15">
-        <v>7.074100195050846</v>
+        <v>3.752377176956855</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.43103190204954</v>
+        <v>1.957423324859178</v>
       </c>
       <c r="C16">
-        <v>0.08426648193771769</v>
+        <v>0.09604989949777831</v>
       </c>
       <c r="D16">
-        <v>0.5474712230676744</v>
+        <v>0.3945882139648944</v>
       </c>
       <c r="E16">
-        <v>0.1772641694691366</v>
+        <v>0.09326594555195555</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002544241473076685</v>
+        <v>0.0008229265879624686</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06643414778303391</v>
+        <v>0.02323811065719728</v>
       </c>
       <c r="K16">
-        <v>0.8400122752093182</v>
+        <v>1.560150056673848</v>
       </c>
       <c r="L16">
-        <v>0.4364268891292369</v>
+        <v>0.3635938214949164</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.697337100375591</v>
+        <v>1.129262357426285</v>
       </c>
       <c r="O16">
-        <v>7.080631220554892</v>
+        <v>3.683677111072882</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.412253299262431</v>
+        <v>1.879615107798855</v>
       </c>
       <c r="C17">
-        <v>0.08365602934676986</v>
+        <v>0.09427490805299499</v>
       </c>
       <c r="D17">
-        <v>0.5457121841104993</v>
+        <v>0.3836205281241547</v>
       </c>
       <c r="E17">
-        <v>0.1771626081024529</v>
+        <v>0.0915865815232344</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002545400103627804</v>
+        <v>0.0008248237246655211</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06654158289979684</v>
+        <v>0.0233580972635643</v>
       </c>
       <c r="K17">
-        <v>0.823170490019919</v>
+        <v>1.494967105601262</v>
       </c>
       <c r="L17">
-        <v>0.434139044434346</v>
+        <v>0.3517056624185813</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.706411884374841</v>
+        <v>1.150754536934432</v>
       </c>
       <c r="O17">
-        <v>7.085399149043496</v>
+        <v>3.643461856930514</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.401507580880718</v>
+        <v>1.835030543096224</v>
       </c>
       <c r="C18">
-        <v>0.08330375966323089</v>
+        <v>0.09325472545127411</v>
       </c>
       <c r="D18">
-        <v>0.5447221437961929</v>
+        <v>0.3773634593692776</v>
       </c>
       <c r="E18">
-        <v>0.177110172387593</v>
+        <v>0.09063259793940759</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002546076010589266</v>
+        <v>0.0008259226335427962</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06660456581554985</v>
+        <v>0.02342878493233602</v>
       </c>
       <c r="K18">
-        <v>0.8135125286214304</v>
+        <v>1.457589975683305</v>
       </c>
       <c r="L18">
-        <v>0.4328401240637163</v>
+        <v>0.3449096125922892</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.711704531947419</v>
+        <v>1.16328090709867</v>
       </c>
       <c r="O18">
-        <v>7.088421459382744</v>
+        <v>3.621015459880454</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.397878773987827</v>
+        <v>1.819962996220767</v>
       </c>
       <c r="C19">
-        <v>0.0831842893887611</v>
+        <v>0.0929094208161132</v>
       </c>
       <c r="D19">
-        <v>0.544390665900039</v>
+        <v>0.3752535246523934</v>
       </c>
       <c r="E19">
-        <v>0.1770934465195708</v>
+        <v>0.09031160857566789</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002546306493797673</v>
+        <v>0.0008262960494846967</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06662609515310347</v>
+        <v>0.02345300451701338</v>
       </c>
       <c r="K19">
-        <v>0.810247503547572</v>
+        <v>1.444953619041371</v>
       </c>
       <c r="L19">
-        <v>0.4324032532409348</v>
+        <v>0.3426155637857846</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.713509081147862</v>
+        <v>1.167550067503878</v>
       </c>
       <c r="O19">
-        <v>7.089492851179045</v>
+        <v>3.613530734143382</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.414246601885992</v>
+        <v>1.887880242398808</v>
       </c>
       <c r="C20">
-        <v>0.08372113252218583</v>
+        <v>0.0944637778348536</v>
       </c>
       <c r="D20">
-        <v>0.5458971905233483</v>
+        <v>0.3847827041298473</v>
       </c>
       <c r="E20">
-        <v>0.1771728008318867</v>
+        <v>0.09176410762553289</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002545275783268821</v>
+        <v>0.000824620975693496</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06653002322563761</v>
+        <v>0.02334515078031618</v>
       </c>
       <c r="K20">
-        <v>0.8249603304579978</v>
+        <v>1.501893925176432</v>
       </c>
       <c r="L20">
-        <v>0.4343808321562221</v>
+        <v>0.3529668164328399</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.705438295340603</v>
+        <v>1.148449539461879</v>
       </c>
       <c r="O20">
-        <v>7.084862626723066</v>
+        <v>3.647671460791912</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.469898625058704</v>
+        <v>2.118160428007059</v>
       </c>
       <c r="C21">
-        <v>0.08551104773801654</v>
+        <v>0.0996963714894008</v>
       </c>
       <c r="D21">
-        <v>0.5512180545863146</v>
+        <v>0.4174272008206685</v>
       </c>
       <c r="E21">
-        <v>0.1775107949537293</v>
+        <v>0.0967898863631369</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002541926011719868</v>
+        <v>0.0008190839627310358</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06622142839318634</v>
+        <v>0.02300291002679522</v>
       </c>
       <c r="K21">
-        <v>0.8747385742782399</v>
+        <v>1.694629266465597</v>
       </c>
       <c r="L21">
-        <v>0.4412279154239513</v>
+        <v>0.3882580886293567</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.679194649622747</v>
+        <v>1.086266627131401</v>
       </c>
       <c r="O21">
-        <v>7.072649289565646</v>
+        <v>3.770731786084468</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.506757472535242</v>
+        <v>2.270387906453607</v>
       </c>
       <c r="C22">
-        <v>0.08667052133588271</v>
+        <v>0.103126731454978</v>
       </c>
       <c r="D22">
-        <v>0.5548880823384934</v>
+        <v>0.4392662762036252</v>
       </c>
       <c r="E22">
-        <v>0.1777847308807559</v>
+        <v>0.1001898310314004</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002539820819654527</v>
+        <v>0.0008155299753775937</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06603029253446735</v>
+        <v>0.02279453685594923</v>
       </c>
       <c r="K22">
-        <v>0.9075260882479483</v>
+        <v>1.821788460869868</v>
       </c>
       <c r="L22">
-        <v>0.445853323855161</v>
+        <v>0.4117383132338972</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.662693733667233</v>
+        <v>1.047170587568317</v>
       </c>
       <c r="O22">
-        <v>7.067157144563168</v>
+        <v>3.857796745208276</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.487040882931637</v>
+        <v>2.188971945985145</v>
       </c>
       <c r="C23">
-        <v>0.08605263778968464</v>
+        <v>0.1012947174158469</v>
       </c>
       <c r="D23">
-        <v>0.5529117416496092</v>
+        <v>0.4275618266729282</v>
       </c>
       <c r="E23">
-        <v>0.1776336834161398</v>
+        <v>0.09836421274122742</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002540936729314138</v>
+        <v>0.0008174210817160687</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06613134205453974</v>
+        <v>0.02290432982022139</v>
       </c>
       <c r="K23">
-        <v>0.8900036565377434</v>
+        <v>1.753802844428009</v>
       </c>
       <c r="L23">
-        <v>0.4433709307039067</v>
+        <v>0.3991662457948024</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.671441025796643</v>
+        <v>1.067891643091492</v>
       </c>
       <c r="O23">
-        <v>7.069860703071924</v>
+        <v>3.810693618911472</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.413345272878388</v>
+        <v>1.884143115183292</v>
       </c>
       <c r="C24">
-        <v>0.08369170346366417</v>
+        <v>0.09437838896511863</v>
       </c>
       <c r="D24">
-        <v>0.5458134829103614</v>
+        <v>0.3842571341168934</v>
       </c>
       <c r="E24">
-        <v>0.1771681741530422</v>
+        <v>0.09168381233556033</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002545331957889612</v>
+        <v>0.0008247126128297825</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0665352455627195</v>
+        <v>0.02335099857657053</v>
       </c>
       <c r="K24">
-        <v>0.8241510669135153</v>
+        <v>1.498762008523556</v>
       </c>
       <c r="L24">
-        <v>0.4342714688594072</v>
+        <v>0.3523965289122799</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.705878219965246</v>
+        <v>1.149491099433721</v>
       </c>
       <c r="O24">
-        <v>7.085104312606319</v>
+        <v>3.645766205746185</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.335967004937231</v>
+        <v>1.56167214907191</v>
       </c>
       <c r="C25">
-        <v>0.08110098461802551</v>
+        <v>0.08694462369659561</v>
       </c>
       <c r="D25">
-        <v>0.5389874071873209</v>
+        <v>0.3394816373819225</v>
       </c>
       <c r="E25">
-        <v>0.1768947830263805</v>
+        <v>0.08492998636032922</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002550436172445216</v>
+        <v>0.0008328751617811593</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06701640661235864</v>
+        <v>0.02389663084119675</v>
       </c>
       <c r="K25">
-        <v>0.7542284984106118</v>
+        <v>1.22794386850066</v>
       </c>
       <c r="L25">
-        <v>0.425106131636511</v>
+        <v>0.3035202923992131</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.745818036997871</v>
+        <v>1.243765364724617</v>
       </c>
       <c r="O25">
-        <v>7.11225058358383</v>
+        <v>3.493759265736799</v>
       </c>
     </row>
   </sheetData>
